--- a/DDAf_2025_Tableau_annexe_Tab11.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab11.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31D050A4-7B8F-44DF-B613-6DDF0C63F96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97B5874A-F893-4B65-84FC-D787AAEDCCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{5985F450-ED8D-4E19-9560-69F6CA41A9F8}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{C5898442-7391-49F3-93F5-1793DEB2E0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab11'!$A$2:$G$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab11'!$A$1:$G$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab11'!$A$1:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab11'!$A$1:$H$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,36 +37,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="169">
-  <si>
-    <t>Table 11: External financial inflows</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Foreign Direct Investment (FDI) inflows as a % of GDP - directional UNCTAD data, 2023</t>
-  </si>
-  <si>
-    <t>Portfolio investment inflows as a % of GDP, 2023</t>
-  </si>
-  <si>
-    <t>Net Official Development Assistance (ODA) inflows as a % of GDP, 2023</t>
-  </si>
-  <si>
-    <t>Remittances inflows as a % of GDP, 2023</t>
-  </si>
-  <si>
-    <t>Total financial inflows as a % of GDP, 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="180">
+  <si>
+    <t>Tableau 11 : Apports financiers extérieurs</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Entrées d’investissements directs étrangers (IDE) en % du PIB - données directionnelles de la CNUCED, 2023</t>
+  </si>
+  <si>
+    <t>Entrées des investissements de portefeuille en % du PIB, 2023</t>
+  </si>
+  <si>
+    <t>Entrées nettes d'aide publique au développement (APD) en % du PIB, 2023</t>
+  </si>
+  <si>
+    <t>Entrées de transferts des migrants en % du PIB, 2023</t>
+  </si>
+  <si>
+    <t>Entrées financières totales en % du PIB, 2023</t>
+  </si>
+  <si>
+    <t>Entrées d’investissements directs étrangers (IDE) en % du PIB - Données actif/passif du FMI, 2023</t>
+  </si>
+  <si>
+    <t>Autres entrées d'investissement en % du PIB, 2023</t>
+  </si>
+  <si>
+    <t>Entrées d’investissements directs étrangers (IDE) (millions de dollars US) - données directionnelles de la CNUCED, 2023</t>
+  </si>
+  <si>
+    <t>Entrées des investissements de portefeuille (millions de dollars US), 2023</t>
+  </si>
+  <si>
+    <t>Entrées nettes d'aide publique au développement (APD) (millions de dollars US), 2023</t>
+  </si>
+  <si>
+    <t>Entrées de transferts des migrants (millions de dollars US), 2023</t>
+  </si>
+  <si>
+    <t>Entrées financières totales (millions de dollars US), 2023</t>
+  </si>
+  <si>
+    <t>Entrées d’investissements directs étrangers (IDE) (millions de dollars US) - Données actif/passif du FMI, 2023</t>
+  </si>
+  <si>
+    <t>Autres entrées d'investissement, millions de dollars US, 2023</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>..</t>
   </si>
   <si>
     <t>BWA</t>
@@ -81,9 +111,6 @@
     <t>Eswatini</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>LSO</t>
   </si>
   <si>
@@ -105,19 +132,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -126,7 +153,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -138,58 +168,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -201,13 +231,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -225,7 +255,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -243,79 +273,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -327,7 +357,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -339,7 +369,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -351,13 +381,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -387,7 +417,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -402,22 +432,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -426,19 +456,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -456,94 +486,98 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: OECD Development Assistance Committee (updated 01/09/2025), UNCTADStat Online Data Centre (updated 22/09/2023), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks - 03/07/2025), IMF Balance of Payments and International Investment Position (BOP/IIP) Statistics (accessed on 02/10/2025), IMF World Economic Outlook Database October 2025.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Source : Comité d’aide au développement de l’OCDE (mis à jour le 01/09/2025), Centre de données en ligne UNCTADStat (mis à jour le 22/09/2023), Indicateurs du développement mondial de la Banque mondiale (base de données et publications provenant des banques centrales, des agences nationales de statistiques et des bureaux-pays de la Banque mondiale – 03/07/2025), Statistiques du FMI sur la balance des paiements et la position extérieure (BOP/IIP) (consultées le 02/10/2025), Base de données des Perspectives économiques mondiales du FMI (octobre 2025).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
@@ -555,7 +589,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,16 +721,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1001,7 +1025,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1329,9 +1353,7 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1614,23 +1636,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0297A2-4003-4FE6-B819-C8A77C388837}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6146D760-4BB0-4073-AD0E-5C141AC3F93F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.1796875" style="114" customWidth="1"/>
-    <col min="5" max="7" width="14.1796875" style="115" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="113" customWidth="1"/>
+    <col min="4" max="7" width="14.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" style="109" customWidth="1"/>
+    <col min="9" max="15" width="14.1796875" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1639,8 +1664,17 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1662,13 +1696,40 @@
       <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" s="14">
         <v>-1.884409</v>
@@ -1685,19 +1746,46 @@
       <c r="G3" s="18">
         <v>-1.7428440000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" s="14">
+        <v>-1.884409</v>
+      </c>
+      <c r="I3" s="17">
+        <v>-4.5093560000000004</v>
+      </c>
+      <c r="J3" s="14">
+        <v>-2119.6320000000001</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="16">
+        <v>147.16914299999999</v>
+      </c>
+      <c r="M3" s="17">
+        <v>12.066566999999999</v>
+      </c>
+      <c r="N3" s="18">
+        <v>-1960.3962899999999</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C4" s="20">
         <v>1.0224470000000001</v>
       </c>
       <c r="D4" s="21">
-        <v>206467.26330600001</v>
+        <v>0.20646700000000001</v>
       </c>
       <c r="E4" s="22">
         <v>1.466072</v>
@@ -1706,21 +1794,48 @@
         <v>0.36074499999999998</v>
       </c>
       <c r="G4" s="24">
-        <v>206470.11257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3.0557319999999999</v>
+      </c>
+      <c r="H4" s="20">
+        <v>3.427997</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.53581599999999996</v>
+      </c>
+      <c r="J4" s="20">
+        <v>198.47</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="22">
+        <v>284.58311400000002</v>
+      </c>
+      <c r="M4" s="23">
+        <v>70.025204000000002</v>
+      </c>
+      <c r="N4" s="24">
+        <v>553.07831799999997</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C5" s="20">
         <v>0.63737299999999997</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5" s="27">
         <v>2.3987039999999999</v>
@@ -1731,19 +1846,46 @@
       <c r="G5" s="29">
         <v>4.7725999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" s="20">
+        <v>0.61107999999999996</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0.34446700000000002</v>
+      </c>
+      <c r="J5" s="20">
+        <v>29.343</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="27">
+        <v>110.430184</v>
+      </c>
+      <c r="M5" s="28">
+        <v>79.945065</v>
+      </c>
+      <c r="N5" s="29">
+        <v>219.71824899999999</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C6" s="20">
         <v>-1.157494</v>
       </c>
       <c r="D6" s="26">
-        <v>8491.7500940000009</v>
+        <v>8.4919999999999995E-3</v>
       </c>
       <c r="E6" s="27">
         <v>7.7808630000000001</v>
@@ -1752,21 +1894,48 @@
         <v>21.872302000000001</v>
       </c>
       <c r="G6" s="29">
-        <v>8520.2457639999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>28.504162000000001</v>
+      </c>
+      <c r="H6" s="20">
+        <v>-1.158118</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0.93652500000000005</v>
+      </c>
+      <c r="J6" s="20">
+        <v>-25.634</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="27">
+        <v>172.31588500000001</v>
+      </c>
+      <c r="M6" s="28">
+        <v>484.38651399999998</v>
+      </c>
+      <c r="N6" s="29">
+        <v>631.068399</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C7" s="20">
         <v>1.592055</v>
       </c>
       <c r="D7" s="26">
-        <v>19323.310867</v>
+        <v>1.9323E-2</v>
       </c>
       <c r="E7" s="27">
         <v>12.883819000000001</v>
@@ -1775,21 +1944,48 @@
         <v>1.33748</v>
       </c>
       <c r="G7" s="29">
-        <v>19339.124220999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>15.832678</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1.5123770000000001</v>
+      </c>
+      <c r="I7" s="28">
+        <v>3.5561370000000001</v>
+      </c>
+      <c r="J7" s="20">
+        <v>213.96100000000001</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="27">
+        <v>1731.494475</v>
+      </c>
+      <c r="M7" s="28">
+        <v>179.74792299999999</v>
+      </c>
+      <c r="N7" s="29">
+        <v>2125.2033980000001</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C8" s="20">
         <v>11.994612</v>
       </c>
       <c r="D8" s="26">
-        <v>-24050.487280000001</v>
+        <v>-2.4049999999999998E-2</v>
       </c>
       <c r="E8" s="27">
         <v>13.992478999999999</v>
@@ -1798,21 +1994,48 @@
         <v>1.2171110000000001</v>
       </c>
       <c r="G8" s="29">
-        <v>-24023.283077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>27.180152</v>
+      </c>
+      <c r="H8" s="20">
+        <v>12.826802000000001</v>
+      </c>
+      <c r="I8" s="28">
+        <v>6.722124</v>
+      </c>
+      <c r="J8" s="20">
+        <v>2509.4029999999998</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="27">
+        <v>2927.3785339999999</v>
+      </c>
+      <c r="M8" s="28">
+        <v>254.632936</v>
+      </c>
+      <c r="N8" s="29">
+        <v>5691.4144699999997</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C9" s="30">
         <v>18.568010000000001</v>
       </c>
       <c r="D9" s="26">
-        <v>-185191.92260799999</v>
+        <v>-0.185192</v>
       </c>
       <c r="E9" s="27">
         <v>2.1902059999999999</v>
@@ -1821,21 +2044,48 @@
         <v>1.009277</v>
       </c>
       <c r="G9" s="29">
-        <v>-185170.155115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>21.582301000000001</v>
+      </c>
+      <c r="H9" s="30">
+        <v>18.499829999999999</v>
+      </c>
+      <c r="I9" s="28">
+        <v>2.7803330000000002</v>
+      </c>
+      <c r="J9" s="30">
+        <v>2302.8319999999999</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="27">
+        <v>271.63259499999998</v>
+      </c>
+      <c r="M9" s="28">
+        <v>125.17200200000001</v>
+      </c>
+      <c r="N9" s="29">
+        <v>2699.6365970000002</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C10" s="30">
         <v>0.91136600000000001</v>
       </c>
       <c r="D10" s="26">
-        <v>-1415639.0757619999</v>
+        <v>-1.4156390000000001</v>
       </c>
       <c r="E10" s="27">
         <v>0.39517799999999997</v>
@@ -1844,21 +2094,48 @@
         <v>0.210678</v>
       </c>
       <c r="G10" s="29">
-        <v>-1415637.5585409999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.10158300000000001</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0.90270799999999995</v>
+      </c>
+      <c r="I10" s="28">
+        <v>-0.195518</v>
+      </c>
+      <c r="J10" s="30">
+        <v>3475.3470000000002</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="27">
+        <v>1506.946353</v>
+      </c>
+      <c r="M10" s="28">
+        <v>803.38560500000006</v>
+      </c>
+      <c r="N10" s="29">
+        <v>5785.6789580000004</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C11" s="20">
         <v>0.31150600000000001</v>
       </c>
       <c r="D11" s="21">
-        <v>668795.93907900003</v>
+        <v>0.66879599999999995</v>
       </c>
       <c r="E11" s="22">
         <v>5.1560459999999999</v>
@@ -1867,21 +2144,48 @@
         <v>0.89088599999999996</v>
       </c>
       <c r="G11" s="24">
-        <v>668802.297517</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.027234</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0.31150699999999998</v>
+      </c>
+      <c r="I11" s="23">
+        <v>1.557728</v>
+      </c>
+      <c r="J11" s="20">
+        <v>85.906999999999996</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="22">
+        <v>1421.9319760000001</v>
+      </c>
+      <c r="M11" s="23">
+        <v>245.68811700000001</v>
+      </c>
+      <c r="N11" s="24">
+        <v>1753.5270929999999</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C12" s="32">
         <v>1.430393</v>
       </c>
       <c r="D12" s="33">
-        <v>51383.285063000003</v>
+        <v>5.1382999999999998E-2</v>
       </c>
       <c r="E12" s="34">
         <v>1.783844</v>
@@ -1890,19 +2194,48 @@
         <v>7.4399119999999996</v>
       </c>
       <c r="G12" s="36">
-        <v>51393.939210999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="37"/>
+        <v>10.705532</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1.257252</v>
+      </c>
+      <c r="I12" s="35">
+        <v>0.26742500000000002</v>
+      </c>
+      <c r="J12" s="32">
+        <v>634.70000000000005</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="34">
+        <v>791.53434600000003</v>
+      </c>
+      <c r="M12" s="35">
+        <v>3301.2677640000002</v>
+      </c>
+      <c r="N12" s="36">
+        <v>4727.5021100000004</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="B13" s="38" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13" s="39">
         <v>1.049366</v>
       </c>
       <c r="D13" s="40">
-        <v>-755888.25069599994</v>
+        <v>-0.755888</v>
       </c>
       <c r="E13" s="41">
         <v>1.506818</v>
@@ -1911,21 +2244,48 @@
         <v>0.88128799999999996</v>
       </c>
       <c r="G13" s="43">
-        <v>-755884.81322400004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.681584</v>
+      </c>
+      <c r="H13" s="39">
+        <v>1.129078</v>
+      </c>
+      <c r="I13" s="42">
+        <v>-0.57503099999999996</v>
+      </c>
+      <c r="J13" s="39">
+        <v>7304.6970000000001</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="41">
+        <v>9365.4166050000003</v>
+      </c>
+      <c r="M13" s="42">
+        <v>5556.3176960000001</v>
+      </c>
+      <c r="N13" s="43">
+        <v>22226.431301000001</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C14" s="30">
         <v>0.69647499999999996</v>
       </c>
       <c r="D14" s="26">
-        <v>200558.333767</v>
+        <v>0.20055799999999999</v>
       </c>
       <c r="E14" s="27">
         <v>14.486057000000001</v>
@@ -1934,21 +2294,48 @@
         <v>4.6111690000000003</v>
       </c>
       <c r="G14" s="29">
-        <v>200578.12746700001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>19.994259</v>
+      </c>
+      <c r="H14" s="30">
+        <v>0.79541200000000001</v>
+      </c>
+      <c r="I14" s="28">
+        <v>10.98929</v>
+      </c>
+      <c r="J14" s="30">
+        <v>29.882999999999999</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="27">
+        <v>621.53950499999996</v>
+      </c>
+      <c r="M14" s="28">
+        <v>197.847049</v>
+      </c>
+      <c r="N14" s="29">
+        <v>849.26955399999997</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C15" s="30">
         <v>1.621543</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E15" s="27">
         <v>1.9077539999999999</v>
@@ -1959,19 +2346,46 @@
       <c r="G15" s="29">
         <v>5.125184</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="30">
+        <v>799.20500000000004</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="27">
+        <v>940.26888599999995</v>
+      </c>
+      <c r="M15" s="28">
+        <v>786.56047799999999</v>
+      </c>
+      <c r="N15" s="29">
+        <v>2526.0343640000001</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C16" s="30">
         <v>1.4236489999999999</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E16" s="27">
         <v>27.104358000000001</v>
@@ -1982,19 +2396,46 @@
       <c r="G16" s="29">
         <v>28.528006000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="30">
+        <v>38.741999999999997</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="27">
+        <v>737.59564899999998</v>
+      </c>
+      <c r="M16" s="28">
+        <v>0</v>
+      </c>
+      <c r="N16" s="29">
+        <v>776.33764900000006</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C17" s="45">
         <v>4.9004510000000003</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E17" s="47">
         <v>6.1056249999999999</v>
@@ -2005,19 +2446,46 @@
       <c r="G17" s="49">
         <v>11.006074999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="45">
+        <v>913.33299999999997</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="47">
+        <v>1137.9501479999999</v>
+      </c>
+      <c r="M17" s="48">
+        <v>0</v>
+      </c>
+      <c r="N17" s="49">
+        <v>2051.283148</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C18" s="45">
         <v>4.4215159999999996</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E18" s="47">
         <v>2.6643140000000001</v>
@@ -2028,19 +2496,46 @@
       <c r="G18" s="49">
         <v>7.3960869999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="45">
+        <v>626.47400000000005</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="47">
+        <v>377.50022300000001</v>
+      </c>
+      <c r="M18" s="48">
+        <v>43.959696000000001</v>
+      </c>
+      <c r="N18" s="49">
+        <v>1047.9339190000001</v>
+      </c>
+      <c r="O18" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C19" s="20">
         <v>3.8206889999999998</v>
       </c>
       <c r="D19" s="21">
-        <v>642.50852899999995</v>
+        <v>6.4300000000000002E-4</v>
       </c>
       <c r="E19" s="22">
         <v>6.442418</v>
@@ -2049,21 +2544,48 @@
         <v>4.891661</v>
       </c>
       <c r="G19" s="24">
-        <v>657.66329599999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>15.15541</v>
+      </c>
+      <c r="H19" s="20">
+        <v>3.5227490000000001</v>
+      </c>
+      <c r="I19" s="23">
+        <v>3.906987</v>
+      </c>
+      <c r="J19" s="20">
+        <v>2576.1489999999999</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="22">
+        <v>4343.8831039999995</v>
+      </c>
+      <c r="M19" s="23">
+        <v>3298.2650990000002</v>
+      </c>
+      <c r="N19" s="24">
+        <v>10218.297203</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C20" s="45">
         <v>1.1490130000000001</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E20" s="47">
         <v>9.4521999999999995E-2</v>
@@ -2074,19 +2596,46 @@
       <c r="G20" s="49">
         <v>1.2435350000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="45">
+        <v>141.78100000000001</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="47">
+        <v>11.663418</v>
+      </c>
+      <c r="M20" s="48">
+        <v>0</v>
+      </c>
+      <c r="N20" s="49">
+        <v>153.44441800000001</v>
+      </c>
+      <c r="O20" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C21" s="45">
         <v>5.7368309999999996</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E21" s="47">
         <v>0.26496700000000001</v>
@@ -2097,19 +2646,46 @@
       <c r="G21" s="49">
         <v>6.0938179999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="45">
+        <v>1150.7329999999999</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="47">
+        <v>53.148809999999997</v>
+      </c>
+      <c r="M21" s="48">
+        <v>18.458041999999999</v>
+      </c>
+      <c r="N21" s="49">
+        <v>1222.3398520000001</v>
+      </c>
+      <c r="O21" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C22" s="51">
         <v>3.4392309999999999</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E22" s="53">
         <v>12.473556</v>
@@ -2120,17 +2696,46 @@
       <c r="G22" s="55">
         <v>17.349931999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="37"/>
+      <c r="H22" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="51">
+        <v>23.931000000000001</v>
+      </c>
+      <c r="K22" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="53">
+        <v>86.794021000000001</v>
+      </c>
+      <c r="M22" s="54">
+        <v>10</v>
+      </c>
+      <c r="N22" s="55">
+        <v>120.725021</v>
+      </c>
+      <c r="O22" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="B23" s="38" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C23" s="39">
         <v>3.2524280000000001</v>
       </c>
       <c r="D23" s="40">
-        <v>13815.892479</v>
+        <v>1.3816E-2</v>
       </c>
       <c r="E23" s="41">
         <v>4.3036260000000004</v>
@@ -2139,21 +2744,48 @@
         <v>2.2631679999999998</v>
       </c>
       <c r="G23" s="43">
-        <v>13825.711702000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9.8330380000000002</v>
+      </c>
+      <c r="H23" s="39">
+        <v>3.343032</v>
+      </c>
+      <c r="I23" s="42">
+        <v>4.3736730000000001</v>
+      </c>
+      <c r="J23" s="39">
+        <v>6300.2309999999998</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="41">
+        <v>8310.3437639999993</v>
+      </c>
+      <c r="M23" s="42">
+        <v>4355.090365</v>
+      </c>
+      <c r="N23" s="43">
+        <v>18965.665129000001</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C24" s="57">
         <v>0.376442</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E24" s="59">
         <v>12.52196</v>
@@ -2164,19 +2796,46 @@
       <c r="G24" s="61">
         <v>35.904708999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="57">
+        <v>0.403001</v>
+      </c>
+      <c r="I24" s="60">
+        <v>0.82765900000000003</v>
+      </c>
+      <c r="J24" s="57">
+        <v>5</v>
+      </c>
+      <c r="K24" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="59">
+        <v>166.31972099999999</v>
+      </c>
+      <c r="M24" s="60">
+        <v>305.57536099999999</v>
+      </c>
+      <c r="N24" s="61">
+        <v>476.895082</v>
+      </c>
+      <c r="O24" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C25" s="30">
         <v>3.4976699999999998</v>
       </c>
       <c r="D25" s="26">
-        <v>-510967.37929299998</v>
+        <v>-0.51096699999999995</v>
       </c>
       <c r="E25" s="27">
         <v>5.6769509999999999</v>
@@ -2185,44 +2844,98 @@
         <v>1.495797</v>
       </c>
       <c r="G25" s="29">
-        <v>-510956.70887500001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10.15945</v>
+      </c>
+      <c r="H25" s="30">
+        <v>3.4976820000000002</v>
+      </c>
+      <c r="I25" s="28">
+        <v>1.5466230000000001</v>
+      </c>
+      <c r="J25" s="30">
+        <v>137.00899999999999</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="27">
+        <v>222.374707</v>
+      </c>
+      <c r="M25" s="28">
+        <v>58.592613</v>
+      </c>
+      <c r="N25" s="29">
+        <v>417.97631999999999</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G26" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="30">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="27">
+        <v>129.19062299999999</v>
+      </c>
+      <c r="M26" s="28">
+        <v>0</v>
+      </c>
+      <c r="N26" s="29">
+        <v>131.26062300000001</v>
+      </c>
+      <c r="O26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C27" s="30">
         <v>2.0461649999999998</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E27" s="27">
         <v>3.381195</v>
@@ -2233,19 +2946,46 @@
       <c r="G27" s="29">
         <v>5.764964</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="30">
+        <v>2.0423990000000001</v>
+      </c>
+      <c r="I27" s="28">
+        <v>6.9499000000000005E-2</v>
+      </c>
+      <c r="J27" s="30">
+        <v>3268.982</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="27">
+        <v>5401.845746</v>
+      </c>
+      <c r="M27" s="28">
+        <v>539.36038900000005</v>
+      </c>
+      <c r="N27" s="29">
+        <v>9210.1881350000003</v>
+      </c>
+      <c r="O27" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C28" s="30">
         <v>1.390258</v>
       </c>
       <c r="D28" s="26">
-        <v>-141421.10397900001</v>
+        <v>-0.14142099999999999</v>
       </c>
       <c r="E28" s="27">
         <v>2.3989639999999999</v>
@@ -2254,21 +2994,48 @@
         <v>3.907003</v>
       </c>
       <c r="G28" s="29">
-        <v>-141413.40775300001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7.5548039999999999</v>
+      </c>
+      <c r="H28" s="30">
+        <v>0.67349899999999996</v>
+      </c>
+      <c r="I28" s="28">
+        <v>6.0741389999999997</v>
+      </c>
+      <c r="J28" s="30">
+        <v>1504.3430000000001</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="27">
+        <v>2595.822897</v>
+      </c>
+      <c r="M28" s="28">
+        <v>4227.6116060000004</v>
+      </c>
+      <c r="N28" s="29">
+        <v>8327.7775029999993</v>
+      </c>
+      <c r="O28" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C29" s="30">
         <v>2.612114</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E29" s="27">
         <v>7.899165</v>
@@ -2279,19 +3046,46 @@
       <c r="G29" s="29">
         <v>12.939078</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="30">
+        <v>414.541</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="27">
+        <v>1253.5932399999999</v>
+      </c>
+      <c r="M29" s="28">
+        <v>385.29031099999997</v>
+      </c>
+      <c r="N29" s="29">
+        <v>2053.4245510000001</v>
+      </c>
+      <c r="O29" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C30" s="30">
         <v>5.3886200000000004</v>
       </c>
       <c r="D30" s="26">
-        <v>28239778.545836002</v>
+        <v>28.239778999999999</v>
       </c>
       <c r="E30" s="27">
         <v>0.67272399999999999</v>
@@ -2300,21 +3094,48 @@
         <v>2.2365930000000001</v>
       </c>
       <c r="G30" s="29">
-        <v>28239786.843773998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>36.537716000000003</v>
+      </c>
+      <c r="H30" s="30">
+        <v>69.032768000000004</v>
+      </c>
+      <c r="I30" s="28">
+        <v>25.748353999999999</v>
+      </c>
+      <c r="J30" s="30">
+        <v>759.84799999999996</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="27">
+        <v>94.860664999999997</v>
+      </c>
+      <c r="M30" s="28">
+        <v>315.38135999999997</v>
+      </c>
+      <c r="N30" s="29">
+        <v>1170.090025</v>
+      </c>
+      <c r="O30" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C31" s="30">
         <v>4.9994870000000002</v>
       </c>
       <c r="D31" s="26">
-        <v>-412669.26172499999</v>
+        <v>-0.41266900000000001</v>
       </c>
       <c r="E31" s="27">
         <v>9.6805839999999996</v>
@@ -2323,44 +3144,98 @@
         <v>3.614941</v>
       </c>
       <c r="G31" s="29">
-        <v>-412650.96671299997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>17.882342999999999</v>
+      </c>
+      <c r="H31" s="30">
+        <v>3.2039879999999998</v>
+      </c>
+      <c r="I31" s="28">
+        <v>8.5974179999999993</v>
+      </c>
+      <c r="J31" s="30">
+        <v>716.48099999999999</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="27">
+        <v>1387.333187</v>
+      </c>
+      <c r="M31" s="28">
+        <v>518.06050200000004</v>
+      </c>
+      <c r="N31" s="29">
+        <v>2621.8746890000002</v>
+      </c>
+      <c r="O31" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C32" s="30">
         <v>10.845715999999999</v>
       </c>
       <c r="D32" s="26">
-        <v>495152.92382099997</v>
+        <v>0.49515300000000001</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F32" s="28">
         <v>0.52194399999999996</v>
       </c>
       <c r="G32" s="29">
-        <v>495164.29148100002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>11.862812999999999</v>
+      </c>
+      <c r="H32" s="30">
+        <v>10.958603999999999</v>
+      </c>
+      <c r="I32" s="28">
+        <v>9.5011449999999993</v>
+      </c>
+      <c r="J32" s="30">
+        <v>237.23699999999999</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="28">
+        <v>11.416891</v>
+      </c>
+      <c r="N32" s="29">
+        <v>248.65389099999999</v>
+      </c>
+      <c r="O32" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C33" s="30">
         <v>6.1676520000000004</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E33" s="27">
         <v>20.595134999999999</v>
@@ -2371,19 +3246,46 @@
       <c r="G33" s="29">
         <v>42.580787000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="30">
+        <v>676.5</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="27">
+        <v>2258.9809639999999</v>
+      </c>
+      <c r="M33" s="28">
+        <v>1735</v>
+      </c>
+      <c r="N33" s="29">
+        <v>4670.4809640000003</v>
+      </c>
+      <c r="O33" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C34" s="45">
         <v>-8.5597999999999994E-2</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E34" s="47">
         <v>24.209655000000001</v>
@@ -2394,19 +3296,46 @@
       <c r="G34" s="49">
         <v>40.006419999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34" s="45">
+        <v>0</v>
+      </c>
+      <c r="I34" s="48">
+        <v>-3.5146410000000001</v>
+      </c>
+      <c r="J34" s="45">
+        <v>-6.335</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="47">
+        <v>1791.723943</v>
+      </c>
+      <c r="M34" s="48">
+        <v>1175.4322999999999</v>
+      </c>
+      <c r="N34" s="49">
+        <v>2960.8212429999999</v>
+      </c>
+      <c r="O34" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P34" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C35" s="30">
         <v>1.4823</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E35" s="27">
         <v>3.7360769999999999</v>
@@ -2417,19 +3346,46 @@
       <c r="G35" s="29">
         <v>7.9223169999999996</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="30">
+        <v>548.20000000000005</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="27">
+        <v>1381.7160449999999</v>
+      </c>
+      <c r="M35" s="28">
+        <v>1000</v>
+      </c>
+      <c r="N35" s="29">
+        <v>2929.9160449999999</v>
+      </c>
+      <c r="O35" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C36" s="30">
         <v>1.7083809999999999</v>
       </c>
       <c r="D36" s="26">
-        <v>16911.671177</v>
+        <v>1.6912E-2</v>
       </c>
       <c r="E36" s="27">
         <v>3.9006379999999998</v>
@@ -2438,21 +3394,48 @@
         <v>0.96827399999999997</v>
       </c>
       <c r="G36" s="29">
-        <v>16918.248469999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>6.5942049999999997</v>
+      </c>
+      <c r="H36" s="30">
+        <v>2.0761530000000001</v>
+      </c>
+      <c r="I36" s="28">
+        <v>3.9633929999999999</v>
+      </c>
+      <c r="J36" s="30">
+        <v>1338.82</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="27">
+        <v>3056.8421349999999</v>
+      </c>
+      <c r="M36" s="28">
+        <v>758.814528</v>
+      </c>
+      <c r="N36" s="29">
+        <v>5154.4766630000004</v>
+      </c>
+      <c r="O36" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C37" s="32">
         <v>5.756481</v>
       </c>
       <c r="D37" s="33">
-        <v>-267481.165141</v>
+        <v>-0.26748100000000002</v>
       </c>
       <c r="E37" s="34">
         <v>4.3393810000000004</v>
@@ -2461,19 +3444,48 @@
         <v>2.7512479999999999</v>
       </c>
       <c r="G37" s="36">
-        <v>-267468.31803099997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="37"/>
+        <v>12.579629000000001</v>
+      </c>
+      <c r="H37" s="32">
+        <v>5.7519910000000003</v>
+      </c>
+      <c r="I37" s="35">
+        <v>2.7880530000000001</v>
+      </c>
+      <c r="J37" s="32">
+        <v>2993.5189999999998</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="34">
+        <v>2256.5905670000002</v>
+      </c>
+      <c r="M37" s="35">
+        <v>1430.72</v>
+      </c>
+      <c r="N37" s="36">
+        <v>6680.8295669999998</v>
+      </c>
+      <c r="O37" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="B38" s="38" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C38" s="39">
         <v>2.4499360000000001</v>
       </c>
       <c r="D38" s="40">
-        <v>1078757.4181339999</v>
+        <v>1.078757</v>
       </c>
       <c r="E38" s="41">
         <v>4.2560140000000004</v>
@@ -2482,21 +3494,48 @@
         <v>2.4961069999999999</v>
       </c>
       <c r="G38" s="43">
-        <v>1078766.6201909999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10.280813999999999</v>
+      </c>
+      <c r="H38" s="39">
+        <v>4.1034680000000003</v>
+      </c>
+      <c r="I38" s="42">
+        <v>3.8709669999999998</v>
+      </c>
+      <c r="J38" s="39">
+        <v>12596.215</v>
+      </c>
+      <c r="K38" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="41">
+        <v>21997.194439999999</v>
+      </c>
+      <c r="M38" s="42">
+        <v>12461.255859999999</v>
+      </c>
+      <c r="N38" s="43">
+        <v>47054.665300000001</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="P38" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C39" s="63">
         <v>0.49027999999999999</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E39" s="65">
         <v>8.1549999999999997E-2</v>
@@ -2507,19 +3546,46 @@
       <c r="G39" s="67">
         <v>1.324649</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39" s="63">
+        <v>0.49006</v>
+      </c>
+      <c r="I39" s="66">
+        <v>-0.32763599999999998</v>
+      </c>
+      <c r="J39" s="63">
+        <v>1216.3230000000001</v>
+      </c>
+      <c r="K39" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="65">
+        <v>202.314989</v>
+      </c>
+      <c r="M39" s="66">
+        <v>1867.6460300000001</v>
+      </c>
+      <c r="N39" s="67">
+        <v>3286.2840190000002</v>
+      </c>
+      <c r="O39" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39" s="66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C40" s="30">
         <v>2.4987080000000002</v>
       </c>
       <c r="D40" s="26">
-        <v>-126755.984442</v>
+        <v>-0.12675600000000001</v>
       </c>
       <c r="E40" s="27">
         <v>0.121777</v>
@@ -2528,21 +3594,48 @@
         <v>4.9595560000000001</v>
       </c>
       <c r="G40" s="29">
-        <v>-126748.40440100001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7.4532850000000002</v>
+      </c>
+      <c r="H40" s="30">
+        <v>2.4987080000000002</v>
+      </c>
+      <c r="I40" s="28">
+        <v>2.0806770000000001</v>
+      </c>
+      <c r="J40" s="30">
+        <v>9840.6</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="27">
+        <v>479.59169800000001</v>
+      </c>
+      <c r="M40" s="28">
+        <v>19532.099999999999</v>
+      </c>
+      <c r="N40" s="29">
+        <v>29852.291698000001</v>
+      </c>
+      <c r="O40" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E41" s="47">
         <v>0.81822899999999998</v>
@@ -2553,19 +3646,46 @@
       <c r="G41" s="49">
         <v>0.81822899999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="47">
+        <v>359.675231</v>
+      </c>
+      <c r="M41" s="48">
+        <v>0</v>
+      </c>
+      <c r="N41" s="49">
+        <v>359.675231</v>
+      </c>
+      <c r="O41" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C42" s="45">
         <v>8.1920760000000001</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E42" s="47">
         <v>3.9118200000000001</v>
@@ -2576,19 +3696,46 @@
       <c r="G42" s="49">
         <v>13.668089999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42" s="45">
+        <v>7.9110319999999996</v>
+      </c>
+      <c r="I42" s="48">
+        <v>0.18035899999999999</v>
+      </c>
+      <c r="J42" s="45">
+        <v>878.49</v>
+      </c>
+      <c r="K42" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="47">
+        <v>419.49006000000003</v>
+      </c>
+      <c r="M42" s="48">
+        <v>167.73873499999999</v>
+      </c>
+      <c r="N42" s="49">
+        <v>1465.718795</v>
+      </c>
+      <c r="O42" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P42" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C43" s="30">
         <v>0.72200799999999998</v>
       </c>
       <c r="D43" s="26">
-        <v>1683302.857994</v>
+        <v>1.683303</v>
       </c>
       <c r="E43" s="27">
         <v>0.528335</v>
@@ -2597,21 +3744,48 @@
         <v>8.0483860000000007</v>
       </c>
       <c r="G43" s="29">
-        <v>1683312.1567230001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>10.982032</v>
+      </c>
+      <c r="H43" s="30">
+        <v>0.75038000000000005</v>
+      </c>
+      <c r="I43" s="28">
+        <v>-4.1523999999999998E-2</v>
+      </c>
+      <c r="J43" s="30">
+        <v>1054.5409999999999</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="27">
+        <v>771.66944100000001</v>
+      </c>
+      <c r="M43" s="28">
+        <v>11755.209355000001</v>
+      </c>
+      <c r="N43" s="29">
+        <v>13581.419796</v>
+      </c>
+      <c r="O43" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P43" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C44" s="51">
         <v>1.5897680000000001</v>
       </c>
       <c r="D44" s="52">
-        <v>-1333275.0863960001</v>
+        <v>-1.333275</v>
       </c>
       <c r="E44" s="53">
         <v>2.5254479999999999</v>
@@ -2620,19 +3794,48 @@
         <v>5.9169039999999997</v>
       </c>
       <c r="G44" s="55">
-        <v>-1333265.054276</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="37"/>
+        <v>8.6988450000000004</v>
+      </c>
+      <c r="H44" s="51">
+        <v>1.4978720000000001</v>
+      </c>
+      <c r="I44" s="54">
+        <v>3.5030389999999998</v>
+      </c>
+      <c r="J44" s="51">
+        <v>771.69100000000003</v>
+      </c>
+      <c r="K44" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="53">
+        <v>1225.88075</v>
+      </c>
+      <c r="M44" s="54">
+        <v>2872.131226</v>
+      </c>
+      <c r="N44" s="55">
+        <v>4869.7029759999996</v>
+      </c>
+      <c r="O44" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="P44" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="B45" s="38" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C45" s="39">
         <v>1.8704780000000001</v>
       </c>
       <c r="D45" s="40">
-        <v>53031.493139999999</v>
+        <v>5.3031000000000002E-2</v>
       </c>
       <c r="E45" s="41">
         <v>0.32681100000000002</v>
@@ -2641,21 +3844,48 @@
         <v>4.2469739999999998</v>
       </c>
       <c r="G45" s="43">
-        <v>53037.937403000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6.4972950000000003</v>
+      </c>
+      <c r="H45" s="39">
+        <v>1.866201</v>
+      </c>
+      <c r="I45" s="42">
+        <v>1.3633789999999999</v>
+      </c>
+      <c r="J45" s="39">
+        <v>13761.645</v>
+      </c>
+      <c r="K45" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="41">
+        <v>3458.6221690000002</v>
+      </c>
+      <c r="M45" s="42">
+        <v>36194.825344999997</v>
+      </c>
+      <c r="N45" s="43">
+        <v>53415.092514000004</v>
+      </c>
+      <c r="O45" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="P45" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B46" s="56" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C46" s="57">
         <v>2.2509320000000002</v>
       </c>
       <c r="D46" s="58" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E46" s="59">
         <v>5.2590700000000004</v>
@@ -2666,19 +3896,46 @@
       <c r="G46" s="61">
         <v>9.2303309999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H46" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="57">
+        <v>442.96</v>
+      </c>
+      <c r="K46" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="59">
+        <v>1034.9302399999999</v>
+      </c>
+      <c r="M46" s="60">
+        <v>338.54290500000002</v>
+      </c>
+      <c r="N46" s="61">
+        <v>1816.433145</v>
+      </c>
+      <c r="O46" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="P46" s="60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C47" s="30">
         <v>2.5188869999999999</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E47" s="27">
         <v>7.1408399999999999</v>
@@ -2689,19 +3946,46 @@
       <c r="G47" s="29">
         <v>12.564897999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="30">
+        <v>506.68900000000002</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="27">
+        <v>1436.4220029999999</v>
+      </c>
+      <c r="M47" s="28">
+        <v>584.392247</v>
+      </c>
+      <c r="N47" s="29">
+        <v>2527.5032500000002</v>
+      </c>
+      <c r="O47" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P47" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C48" s="45">
         <v>5.2454070000000002</v>
       </c>
       <c r="D48" s="46">
-        <v>245.50744299999999</v>
+        <v>2.4600000000000002E-4</v>
       </c>
       <c r="E48" s="47">
         <v>4.0666960000000003</v>
@@ -2710,21 +3994,48 @@
         <v>12.650033000000001</v>
       </c>
       <c r="G48" s="49">
-        <v>267.46957800000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+        <v>21.962381000000001</v>
+      </c>
+      <c r="H48" s="45">
+        <v>6.3468790000000004</v>
+      </c>
+      <c r="I48" s="48">
+        <v>2.9412820000000002</v>
+      </c>
+      <c r="J48" s="45">
+        <v>131.18799999999999</v>
+      </c>
+      <c r="K48" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="47">
+        <v>101.708349</v>
+      </c>
+      <c r="M48" s="48">
+        <v>316.37823200000003</v>
+      </c>
+      <c r="N48" s="49">
+        <v>549.27458100000001</v>
+      </c>
+      <c r="O48" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="P48" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C49" s="30">
         <v>3.1208429999999998</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E49" s="27">
         <v>2.9842179999999998</v>
@@ -2735,19 +4046,46 @@
       <c r="G49" s="29">
         <v>7.4135270000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="30">
+        <v>2485.1219999999998</v>
+      </c>
+      <c r="K49" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="27">
+        <v>2376.327417</v>
+      </c>
+      <c r="M49" s="28">
+        <v>1041.9294440000001</v>
+      </c>
+      <c r="N49" s="29">
+        <v>5903.3788610000001</v>
+      </c>
+      <c r="O49" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P49" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C50" s="30">
         <v>9.2797590000000003</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E50" s="27">
         <v>15.313534000000001</v>
@@ -2758,19 +4096,46 @@
       <c r="G50" s="29">
         <v>47.524380999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50" s="30">
+        <v>9.2797689999999999</v>
+      </c>
+      <c r="I50" s="28">
+        <v>0.38146400000000003</v>
+      </c>
+      <c r="J50" s="30">
+        <v>208.37200000000001</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="27">
+        <v>343.85717199999999</v>
+      </c>
+      <c r="M50" s="28">
+        <v>514.90527999999995</v>
+      </c>
+      <c r="N50" s="29">
+        <v>1067.134452</v>
+      </c>
+      <c r="O50" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P50" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C51" s="20">
         <v>1.6242909999999999</v>
       </c>
       <c r="D51" s="21">
-        <v>-330104.95444499998</v>
+        <v>-0.33010499999999998</v>
       </c>
       <c r="E51" s="22">
         <v>1.9516249999999999</v>
@@ -2779,21 +4144,48 @@
         <v>3.0186899999999999</v>
       </c>
       <c r="G51" s="24">
-        <v>-330098.35983899998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6.2645010000000001</v>
+      </c>
+      <c r="H51" s="20">
+        <v>1.637942</v>
+      </c>
+      <c r="I51" s="23">
+        <v>-1.7339709999999999</v>
+      </c>
+      <c r="J51" s="20">
+        <v>1308.32</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="22">
+        <v>1571.9784569999999</v>
+      </c>
+      <c r="M51" s="23">
+        <v>2431.468249</v>
+      </c>
+      <c r="N51" s="24">
+        <v>5311.7667060000003</v>
+      </c>
+      <c r="O51" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C52" s="30">
         <v>4.0433669999999999</v>
       </c>
       <c r="D52" s="26">
-        <v>5839.9215709999999</v>
+        <v>5.8399999999999997E-3</v>
       </c>
       <c r="E52" s="27">
         <v>2.4072849999999999</v>
@@ -2802,21 +4194,48 @@
         <v>2.2492299999999998</v>
       </c>
       <c r="G52" s="29">
-        <v>5848.6214529999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8.7057219999999997</v>
+      </c>
+      <c r="H52" s="30">
+        <v>5.9213180000000003</v>
+      </c>
+      <c r="I52" s="28">
+        <v>3.5931310000000001</v>
+      </c>
+      <c r="J52" s="30">
+        <v>893.15300000000002</v>
+      </c>
+      <c r="K52" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="27">
+        <v>531.75327500000003</v>
+      </c>
+      <c r="M52" s="28">
+        <v>496.84</v>
+      </c>
+      <c r="N52" s="29">
+        <v>1921.746275</v>
+      </c>
+      <c r="O52" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P52" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C53" s="30">
         <v>0.98982199999999998</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E53" s="27">
         <v>9.4067310000000006</v>
@@ -2827,19 +4246,46 @@
       <c r="G53" s="29">
         <v>20.589642999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H53" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="30">
+        <v>19.847000000000001</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="27">
+        <v>188.61512099999999</v>
+      </c>
+      <c r="M53" s="28">
+        <v>204.38247200000001</v>
+      </c>
+      <c r="N53" s="29">
+        <v>412.84459299999997</v>
+      </c>
+      <c r="O53" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P53" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C54" s="30">
         <v>16.959052</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E54" s="27">
         <v>12.814791</v>
@@ -2850,19 +4296,46 @@
       <c r="G54" s="29">
         <v>47.995153000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="30">
+        <v>744.58100000000002</v>
+      </c>
+      <c r="K54" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="27">
+        <v>562.62871500000006</v>
+      </c>
+      <c r="M54" s="28">
+        <v>800</v>
+      </c>
+      <c r="N54" s="29">
+        <v>2107.209715</v>
+      </c>
+      <c r="O54" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P54" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C55" s="30">
         <v>3.3163900000000002</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E55" s="27">
         <v>6.1010629999999999</v>
@@ -2873,19 +4346,46 @@
       <c r="G55" s="29">
         <v>14.350925999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H55" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="30">
+        <v>702.56</v>
+      </c>
+      <c r="K55" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" s="27">
+        <v>1292.478666</v>
+      </c>
+      <c r="M55" s="28">
+        <v>1045.130737</v>
+      </c>
+      <c r="N55" s="29">
+        <v>3040.1694029999999</v>
+      </c>
+      <c r="O55" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P55" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C56" s="30">
         <v>6.1011329999999999</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E56" s="27">
         <v>7.6301649999999999</v>
@@ -2896,19 +4396,46 @@
       <c r="G56" s="29">
         <v>17.442623999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H56" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="30">
+        <v>1025.5519999999999</v>
+      </c>
+      <c r="K56" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" s="27">
+        <v>1282.57015</v>
+      </c>
+      <c r="M56" s="28">
+        <v>623.84441300000003</v>
+      </c>
+      <c r="N56" s="29">
+        <v>2931.966563</v>
+      </c>
+      <c r="O56" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P56" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C57" s="30">
         <v>0.38422499999999998</v>
       </c>
       <c r="D57" s="26">
-        <v>1326809.3084710001</v>
+        <v>1.3268089999999999</v>
       </c>
       <c r="E57" s="27">
         <v>0.73795500000000003</v>
@@ -2917,21 +4444,48 @@
         <v>4.0114219999999996</v>
       </c>
       <c r="G57" s="29">
-        <v>1326814.4420729999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6.4604109999999997</v>
+      </c>
+      <c r="H57" s="30">
+        <v>0.38422699999999999</v>
+      </c>
+      <c r="I57" s="28">
+        <v>1.207886</v>
+      </c>
+      <c r="J57" s="30">
+        <v>1872.51</v>
+      </c>
+      <c r="K57" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="27">
+        <v>3596.4013</v>
+      </c>
+      <c r="M57" s="28">
+        <v>19549.549364999999</v>
+      </c>
+      <c r="N57" s="29">
+        <v>25018.460664999999</v>
+      </c>
+      <c r="O57" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P57" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C58" s="30">
         <v>15.602251000000001</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E58" s="27">
         <v>6.0572309999999998</v>
@@ -2942,13 +4496,40 @@
       <c r="G58" s="29">
         <v>32.301388000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H58" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="30">
+        <v>4789.9970000000003</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="27">
+        <v>1859.6111980000001</v>
+      </c>
+      <c r="M58" s="28">
+        <v>3267.1373610000001</v>
+      </c>
+      <c r="N58" s="29">
+        <v>9916.7455590000009</v>
+      </c>
+      <c r="O58" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P58" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C59" s="30">
         <v>3.7676630000000002</v>
@@ -2965,19 +4546,46 @@
       <c r="G59" s="29">
         <v>16.130635999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H59" s="30">
+        <v>3.1548409999999998</v>
+      </c>
+      <c r="I59" s="28">
+        <v>0.78966400000000003</v>
+      </c>
+      <c r="J59" s="30">
+        <v>241</v>
+      </c>
+      <c r="K59" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="27">
+        <v>497.80044299999997</v>
+      </c>
+      <c r="M59" s="28">
+        <v>293.00173599999999</v>
+      </c>
+      <c r="N59" s="29">
+        <v>1031.802179</v>
+      </c>
+      <c r="O59" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P59" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C60" s="32">
         <v>0.87810699999999997</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E60" s="34">
         <v>6.7783379999999998</v>
@@ -2988,17 +4596,44 @@
       <c r="G60" s="36">
         <v>14.818841000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H60" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="32">
+        <v>79.736999999999995</v>
+      </c>
+      <c r="K60" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="34">
+        <v>615.51090399999998</v>
+      </c>
+      <c r="M60" s="35">
+        <v>650.38561000000004</v>
+      </c>
+      <c r="N60" s="36">
+        <v>1345.6335140000001</v>
+      </c>
+      <c r="O60" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P60" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="37"/>
       <c r="B61" s="38" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C61" s="39">
         <v>1.602401</v>
       </c>
       <c r="D61" s="40">
-        <v>1090939.7040339999</v>
+        <v>1.09094</v>
       </c>
       <c r="E61" s="41">
         <v>1.902452</v>
@@ -3007,19 +4642,46 @@
         <v>3.9891749999999999</v>
       </c>
       <c r="G61" s="43">
-        <v>1090947.1980620001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8.5849679999999999</v>
+      </c>
+      <c r="H61" s="39">
+        <v>0.74982099999999996</v>
+      </c>
+      <c r="I61" s="42">
+        <v>0.94723900000000005</v>
+      </c>
+      <c r="J61" s="39">
+        <v>15451.588</v>
+      </c>
+      <c r="K61" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="41">
+        <v>17292.593410000001</v>
+      </c>
+      <c r="M61" s="42">
+        <v>32157.888050000001</v>
+      </c>
+      <c r="N61" s="43">
+        <v>64902.069459999999</v>
+      </c>
+      <c r="O61" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="P61" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="69"/>
       <c r="B62" s="70" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C62" s="71">
         <v>1.8113490000000001</v>
       </c>
       <c r="D62" s="72">
-        <v>298793.12112999998</v>
+        <v>0.29879299999999998</v>
       </c>
       <c r="E62" s="73">
         <v>1.7533460000000001</v>
@@ -3028,19 +4690,46 @@
         <v>3.250197</v>
       </c>
       <c r="G62" s="75">
-        <v>298799.93602299999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.1136850000000003</v>
+      </c>
+      <c r="H62" s="71">
+        <v>1.781909</v>
+      </c>
+      <c r="I62" s="74">
+        <v>1.3020099999999999</v>
+      </c>
+      <c r="J62" s="71">
+        <v>55414.375999999997</v>
+      </c>
+      <c r="K62" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="73">
+        <v>60424.170387999999</v>
+      </c>
+      <c r="M62" s="74">
+        <v>90725.377315999998</v>
+      </c>
+      <c r="N62" s="75">
+        <v>206563.92370399999</v>
+      </c>
+      <c r="O62" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="P62" s="74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="69"/>
       <c r="B63" s="70" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C63" s="71">
         <v>1.337286</v>
       </c>
       <c r="D63" s="72">
-        <v>1878163.582588</v>
+        <v>1.8781639999999999</v>
       </c>
       <c r="E63" s="73">
         <v>0.36116500000000001</v>
@@ -3049,19 +4738,46 @@
         <v>1.122995</v>
       </c>
       <c r="G63" s="75">
-        <v>1878166.4040339999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.6996099999999998</v>
+      </c>
+      <c r="H63" s="71">
+        <v>0.58125800000000005</v>
+      </c>
+      <c r="I63" s="74">
+        <v>1.4367190000000001</v>
+      </c>
+      <c r="J63" s="71">
+        <v>1269178.4310000001</v>
+      </c>
+      <c r="K63" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" s="73">
+        <v>103375.125015</v>
+      </c>
+      <c r="M63" s="74">
+        <v>722641.234238</v>
+      </c>
+      <c r="N63" s="75">
+        <v>2095194.7902530001</v>
+      </c>
+      <c r="O63" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="P63" s="74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="76"/>
       <c r="B64" s="77" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C64" s="78">
         <v>2.9364110000000001</v>
       </c>
       <c r="D64" s="79">
-        <v>237695.83438799999</v>
+        <v>0.23769599999999999</v>
       </c>
       <c r="E64" s="80">
         <v>0.18312200000000001</v>
@@ -3070,19 +4786,46 @@
         <v>2.475349</v>
       </c>
       <c r="G64" s="82">
-        <v>237701.42926999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5.8325779999999998</v>
+      </c>
+      <c r="H64" s="78">
+        <v>2.7579210000000001</v>
+      </c>
+      <c r="I64" s="81">
+        <v>0.43086600000000003</v>
+      </c>
+      <c r="J64" s="78">
+        <v>189395.06400000001</v>
+      </c>
+      <c r="K64" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="80">
+        <v>9952.9601590000002</v>
+      </c>
+      <c r="M64" s="81">
+        <v>156691.59362900001</v>
+      </c>
+      <c r="N64" s="82">
+        <v>356039.61778799997</v>
+      </c>
+      <c r="O64" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="P64" s="81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="76"/>
       <c r="B65" s="83" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C65" s="84">
         <v>1.03593</v>
       </c>
       <c r="D65" s="85">
-        <v>217315.86533500001</v>
+        <v>0.21731600000000001</v>
       </c>
       <c r="E65" s="86">
         <v>0.20358000000000001</v>
@@ -3091,19 +4834,46 @@
         <v>1.764162</v>
       </c>
       <c r="G65" s="88">
-        <v>217318.86900800001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3.2209889999999999</v>
+      </c>
+      <c r="H65" s="84">
+        <v>0.68669000000000002</v>
+      </c>
+      <c r="I65" s="87">
+        <v>0.84128099999999995</v>
+      </c>
+      <c r="J65" s="84">
+        <v>271892.11900000001</v>
+      </c>
+      <c r="K65" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" s="86">
+        <v>47250.46183</v>
+      </c>
+      <c r="M65" s="87">
+        <v>336127.19472199999</v>
+      </c>
+      <c r="N65" s="88">
+        <v>655269.77555200004</v>
+      </c>
+      <c r="O65" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P65" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="76"/>
       <c r="B66" s="89" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C66" s="90">
         <v>1.3635079999999999</v>
       </c>
       <c r="D66" s="91">
-        <v>1809357.9846340001</v>
+        <v>1.809358</v>
       </c>
       <c r="E66" s="92">
         <v>0.50895699999999999</v>
@@ -3112,19 +4882,46 @@
         <v>1.242183</v>
       </c>
       <c r="G66" s="94">
-        <v>1809361.099282</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.9240050000000002</v>
+      </c>
+      <c r="H66" s="90">
+        <v>0.64155799999999996</v>
+      </c>
+      <c r="I66" s="93">
+        <v>1.4297</v>
+      </c>
+      <c r="J66" s="90">
+        <v>1324592.807</v>
+      </c>
+      <c r="K66" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" s="92">
+        <v>163799.295403</v>
+      </c>
+      <c r="M66" s="93">
+        <v>813366.61155399994</v>
+      </c>
+      <c r="N66" s="94">
+        <v>2301758.7139570001</v>
+      </c>
+      <c r="O66" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="P66" s="93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="76"/>
       <c r="B67" s="83" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C67" s="84">
         <v>2.4609000000000001</v>
       </c>
       <c r="D67" s="85">
-        <v>146016.27246400001</v>
+        <v>0.14601600000000001</v>
       </c>
       <c r="E67" s="86">
         <v>2.0393219999999999</v>
@@ -3133,19 +4930,46 @@
         <v>4.1105780000000003</v>
       </c>
       <c r="G67" s="88">
-        <v>146024.883264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8.7568169999999999</v>
+      </c>
+      <c r="H67" s="84">
+        <v>2.973462</v>
+      </c>
+      <c r="I67" s="87">
+        <v>2.7067160000000001</v>
+      </c>
+      <c r="J67" s="84">
+        <v>25445.964</v>
+      </c>
+      <c r="K67" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" s="86">
+        <v>28234.589630999999</v>
+      </c>
+      <c r="M67" s="87">
+        <v>40234.001276000003</v>
+      </c>
+      <c r="N67" s="88">
+        <v>93914.554906999998</v>
+      </c>
+      <c r="O67" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P67" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="76"/>
       <c r="B68" s="83" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C68" s="84">
         <v>1.9303459999999999</v>
       </c>
       <c r="D68" s="85">
-        <v>535955.14618100005</v>
+        <v>0.53595499999999996</v>
       </c>
       <c r="E68" s="86">
         <v>1.3856569999999999</v>
@@ -3154,19 +4978,46 @@
         <v>4.5250959999999996</v>
       </c>
       <c r="G68" s="88">
-        <v>535962.98728</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8.3770550000000004</v>
+      </c>
+      <c r="H68" s="84">
+        <v>1.557048</v>
+      </c>
+      <c r="I68" s="87">
+        <v>1.428436</v>
+      </c>
+      <c r="J68" s="84">
+        <v>29441.994999999999</v>
+      </c>
+      <c r="K68" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" s="86">
+        <v>25918.691383000001</v>
+      </c>
+      <c r="M68" s="87">
+        <v>68467.857107000003</v>
+      </c>
+      <c r="N68" s="88">
+        <v>123828.54349</v>
+      </c>
+      <c r="O68" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P68" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="76"/>
       <c r="B69" s="83" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C69" s="84">
         <v>2.7164869999999999</v>
       </c>
       <c r="D69" s="85">
-        <v>-104744.786223</v>
+        <v>-0.104745</v>
       </c>
       <c r="E69" s="86">
         <v>4.6170799999999996</v>
@@ -3175,19 +5026,46 @@
         <v>3.3555290000000002</v>
       </c>
       <c r="G69" s="88">
-        <v>-104734.097127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10.584351</v>
+      </c>
+      <c r="H69" s="84">
+        <v>2.424855</v>
+      </c>
+      <c r="I69" s="87">
+        <v>4.687894</v>
+      </c>
+      <c r="J69" s="84">
+        <v>9152.86</v>
+      </c>
+      <c r="K69" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" s="86">
+        <v>16053.735338</v>
+      </c>
+      <c r="M69" s="87">
+        <v>11606.751085</v>
+      </c>
+      <c r="N69" s="88">
+        <v>36813.346423000003</v>
+      </c>
+      <c r="O69" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P69" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="76"/>
       <c r="B70" s="83" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C70" s="84">
         <v>1.3698429999999999</v>
       </c>
       <c r="D70" s="85">
-        <v>-28328.309058999999</v>
+        <v>-2.8327999999999999E-2</v>
       </c>
       <c r="E70" s="86">
         <v>2.9751569999999998</v>
@@ -3196,19 +5074,46 @@
         <v>1.4673940000000001</v>
       </c>
       <c r="G70" s="88">
-        <v>-28322.496664999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5.784065</v>
+      </c>
+      <c r="H70" s="84">
+        <v>0.19389999999999999</v>
+      </c>
+      <c r="I70" s="87">
+        <v>-0.62367600000000001</v>
+      </c>
+      <c r="J70" s="84">
+        <v>4897.08</v>
+      </c>
+      <c r="K70" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" s="86">
+        <v>9844.8460940000004</v>
+      </c>
+      <c r="M70" s="87">
+        <v>4885.2174340000001</v>
+      </c>
+      <c r="N70" s="88">
+        <v>19627.143528000001</v>
+      </c>
+      <c r="O70" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P70" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="76"/>
       <c r="B71" s="83" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C71" s="84">
         <v>1.602401</v>
       </c>
       <c r="D71" s="85">
-        <v>1090939.7040339999</v>
+        <v>1.09094</v>
       </c>
       <c r="E71" s="86">
         <v>1.902452</v>
@@ -3217,19 +5122,46 @@
         <v>3.9891749999999999</v>
       </c>
       <c r="G71" s="88">
-        <v>1090947.1980620001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8.5849679999999999</v>
+      </c>
+      <c r="H71" s="84">
+        <v>0.74982099999999996</v>
+      </c>
+      <c r="I71" s="87">
+        <v>0.94723900000000005</v>
+      </c>
+      <c r="J71" s="84">
+        <v>15451.588</v>
+      </c>
+      <c r="K71" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" s="86">
+        <v>17292.593410000001</v>
+      </c>
+      <c r="M71" s="87">
+        <v>32157.888050000001</v>
+      </c>
+      <c r="N71" s="88">
+        <v>64902.069459999999</v>
+      </c>
+      <c r="O71" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P71" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="76"/>
       <c r="B72" s="83" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C72" s="84">
         <v>2.3803540000000001</v>
       </c>
       <c r="D72" s="85">
-        <v>-185989.03352600001</v>
+        <v>-0.18598899999999999</v>
       </c>
       <c r="E72" s="86">
         <v>4.0121609999999999</v>
@@ -3238,19 +5170,46 @@
         <v>2.7520959999999999</v>
       </c>
       <c r="G72" s="88">
-        <v>-185979.88891499999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8.9586220000000001</v>
+      </c>
+      <c r="H72" s="84">
+        <v>2.135675</v>
+      </c>
+      <c r="I72" s="87">
+        <v>2.7365300000000001</v>
+      </c>
+      <c r="J72" s="84">
+        <v>9122.2180000000008</v>
+      </c>
+      <c r="K72" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="86">
+        <v>15909.054869</v>
+      </c>
+      <c r="M72" s="87">
+        <v>10166.716909000001</v>
+      </c>
+      <c r="N72" s="88">
+        <v>35197.989778000003</v>
+      </c>
+      <c r="O72" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P72" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="76"/>
       <c r="B73" s="83" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C73" s="84">
         <v>1.4670939999999999</v>
       </c>
       <c r="D73" s="85">
-        <v>-117982.907637</v>
+        <v>-0.117983</v>
       </c>
       <c r="E73" s="86">
         <v>2.327391</v>
@@ -3259,19 +5218,46 @@
         <v>1.3007230000000001</v>
       </c>
       <c r="G73" s="88">
-        <v>-117977.812428</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.9772249999999998</v>
+      </c>
+      <c r="H73" s="84">
+        <v>2.5745800000000001</v>
+      </c>
+      <c r="I73" s="87">
+        <v>0.76227</v>
+      </c>
+      <c r="J73" s="84">
+        <v>12636.291999999999</v>
+      </c>
+      <c r="K73" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" s="86">
+        <v>18280.91547</v>
+      </c>
+      <c r="M73" s="87">
+        <v>10631.061245000001</v>
+      </c>
+      <c r="N73" s="88">
+        <v>41548.268714999998</v>
+      </c>
+      <c r="O73" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P73" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="76"/>
       <c r="B74" s="83" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C74" s="84">
         <v>0.89035799999999998</v>
       </c>
       <c r="D74" s="85">
-        <v>748125.73802699998</v>
+        <v>0.74812599999999996</v>
       </c>
       <c r="E74" s="86">
         <v>0.62455400000000005</v>
@@ -3280,19 +5266,46 @@
         <v>3.2121900000000001</v>
       </c>
       <c r="G74" s="88">
-        <v>748130.46512900002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5.4752270000000003</v>
+      </c>
+      <c r="H74" s="84">
+        <v>0.87941000000000003</v>
+      </c>
+      <c r="I74" s="87">
+        <v>0.24430199999999999</v>
+      </c>
+      <c r="J74" s="84">
+        <v>3921.0450000000001</v>
+      </c>
+      <c r="K74" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L74" s="86">
+        <v>2979.030471</v>
+      </c>
+      <c r="M74" s="87">
+        <v>16662.725344999999</v>
+      </c>
+      <c r="N74" s="88">
+        <v>23562.800815999999</v>
+      </c>
+      <c r="O74" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P74" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="76"/>
       <c r="B75" s="83" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C75" s="95">
         <v>9.4196000000000002E-2</v>
       </c>
       <c r="D75" s="96">
-        <v>-3227.5414390000001</v>
+        <v>-3.228E-3</v>
       </c>
       <c r="E75" s="97">
         <v>2.1761949999999999</v>
@@ -3301,19 +5314,46 @@
         <v>0.46934300000000001</v>
       </c>
       <c r="G75" s="99">
-        <v>-3224.8017049999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.7365059999999999</v>
+      </c>
+      <c r="H75" s="95">
+        <v>0.19650799999999999</v>
+      </c>
+      <c r="I75" s="98">
+        <v>-2.9058030000000001</v>
+      </c>
+      <c r="J75" s="95">
+        <v>564.73699999999997</v>
+      </c>
+      <c r="K75" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" s="97">
+        <v>3451.665168</v>
+      </c>
+      <c r="M75" s="98">
+        <v>797.46020699999997</v>
+      </c>
+      <c r="N75" s="99">
+        <v>4813.8623749999997</v>
+      </c>
+      <c r="O75" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="P75" s="98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="76"/>
       <c r="B76" s="100" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C76" s="101">
         <v>4.0083760000000002</v>
       </c>
       <c r="D76" s="102">
-        <v>-56316.489414999996</v>
+        <v>-5.6315999999999998E-2</v>
       </c>
       <c r="E76" s="103">
         <v>0.23080300000000001</v>
@@ -3322,19 +5362,46 @@
         <v>2.266915</v>
       </c>
       <c r="G76" s="105">
-        <v>-56309.983321</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6.4497770000000001</v>
+      </c>
+      <c r="H76" s="101">
+        <v>4.681152</v>
+      </c>
+      <c r="I76" s="104">
+        <v>-7.9880999999999994E-2</v>
+      </c>
+      <c r="J76" s="101">
+        <v>205171.15100000001</v>
+      </c>
+      <c r="K76" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" s="103">
+        <v>7152.5719710000003</v>
+      </c>
+      <c r="M76" s="104">
+        <v>83130.254000000001</v>
+      </c>
+      <c r="N76" s="105">
+        <v>295453.97697100003</v>
+      </c>
+      <c r="O76" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="P76" s="104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="76"/>
       <c r="B77" s="83" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C77" s="84">
         <v>3.2680669999999998</v>
       </c>
       <c r="D77" s="85">
-        <v>340504.22724899999</v>
+        <v>0.34050399999999997</v>
       </c>
       <c r="E77" s="86">
         <v>0.14898500000000001</v>
@@ -3343,40 +5410,94 @@
         <v>0.79291900000000004</v>
       </c>
       <c r="G77" s="88">
-        <v>340508.43722099997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.5504759999999997</v>
+      </c>
+      <c r="H77" s="84">
+        <v>3.1261830000000002</v>
+      </c>
+      <c r="I77" s="87">
+        <v>0.72003200000000001</v>
+      </c>
+      <c r="J77" s="84">
+        <v>138735.223</v>
+      </c>
+      <c r="K77" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L77" s="86">
+        <v>5104.0820160000003</v>
+      </c>
+      <c r="M77" s="87">
+        <v>29088.541585999999</v>
+      </c>
+      <c r="N77" s="88">
+        <v>172927.84660200001</v>
+      </c>
+      <c r="O77" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P77" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="76"/>
       <c r="B78" s="83" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C78" s="84">
         <v>1.0596509999999999</v>
       </c>
       <c r="D78" s="85">
-        <v>5812961.9695910001</v>
+        <v>5.8129619999999997</v>
       </c>
       <c r="E78" s="86" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F78" s="87">
         <v>0.88362499999999999</v>
       </c>
       <c r="G78" s="88">
-        <v>5812963.9128679996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.7562389999999999</v>
+      </c>
+      <c r="H78" s="84">
+        <v>-2.3044009999999999</v>
+      </c>
+      <c r="I78" s="87">
+        <v>0.21615599999999999</v>
+      </c>
+      <c r="J78" s="84">
+        <v>147526.16800000001</v>
+      </c>
+      <c r="K78" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="M78" s="87">
+        <v>152363.64566400001</v>
+      </c>
+      <c r="N78" s="88">
+        <v>299889.81366400002</v>
+      </c>
+      <c r="O78" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P78" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="76"/>
       <c r="B79" s="89" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C79" s="90">
         <v>1.087013</v>
       </c>
       <c r="D79" s="91">
-        <v>3614326.6844469998</v>
+        <v>3.6143269999999998</v>
       </c>
       <c r="E79" s="92">
         <v>0.110739</v>
@@ -3385,19 +5506,46 @@
         <v>0.473829</v>
       </c>
       <c r="G79" s="94">
-        <v>3614328.3560279999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5.2859080000000001</v>
+      </c>
+      <c r="H79" s="90">
+        <v>-0.16758400000000001</v>
+      </c>
+      <c r="I79" s="93">
+        <v>1.927265</v>
+      </c>
+      <c r="J79" s="90">
+        <v>627909.39099999995</v>
+      </c>
+      <c r="K79" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" s="92">
+        <v>3177.693088</v>
+      </c>
+      <c r="M79" s="93">
+        <v>244126.289215</v>
+      </c>
+      <c r="N79" s="94">
+        <v>875213.373303</v>
+      </c>
+      <c r="O79" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="P79" s="93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="76"/>
       <c r="B80" s="100" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C80" s="101">
         <v>0.57226900000000003</v>
       </c>
       <c r="D80" s="102">
-        <v>3.6101899999999998</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="E80" s="103">
         <v>0.801257</v>
@@ -3406,19 +5554,46 @@
         <v>0.665767</v>
       </c>
       <c r="G80" s="105">
-        <v>5.649483</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.0392969999999999</v>
+      </c>
+      <c r="H80" s="101">
+        <v>1.3325E-2</v>
+      </c>
+      <c r="I80" s="104">
+        <v>-1.5984480000000001</v>
+      </c>
+      <c r="J80" s="101">
+        <v>2932.355</v>
+      </c>
+      <c r="K80" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="L80" s="103">
+        <v>4602.3443139999999</v>
+      </c>
+      <c r="M80" s="104">
+        <v>3601.6796020000002</v>
+      </c>
+      <c r="N80" s="105">
+        <v>11136.378916</v>
+      </c>
+      <c r="O80" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="P80" s="104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="76"/>
       <c r="B81" s="83" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C81" s="84">
         <v>1.1164879999999999</v>
       </c>
       <c r="D81" s="85">
-        <v>81341.853669000004</v>
+        <v>8.1341999999999998E-2</v>
       </c>
       <c r="E81" s="86">
         <v>0.66481100000000004</v>
@@ -3427,19 +5602,46 @@
         <v>0.725082</v>
       </c>
       <c r="G81" s="88">
-        <v>81344.360050999996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.5877240000000001</v>
+      </c>
+      <c r="H81" s="84">
+        <v>0.41989799999999999</v>
+      </c>
+      <c r="I81" s="87">
+        <v>0.99240200000000001</v>
+      </c>
+      <c r="J81" s="84">
+        <v>80909.266000000003</v>
+      </c>
+      <c r="K81" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L81" s="86">
+        <v>10034.305807999999</v>
+      </c>
+      <c r="M81" s="87">
+        <v>32205.476865000001</v>
+      </c>
+      <c r="N81" s="88">
+        <v>123149.048673</v>
+      </c>
+      <c r="O81" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P81" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="76"/>
       <c r="B82" s="83" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C82" s="84">
         <v>2.0035590000000001</v>
       </c>
       <c r="D82" s="85">
-        <v>313482.53250099998</v>
+        <v>0.31348300000000001</v>
       </c>
       <c r="E82" s="86">
         <v>1.91204</v>
@@ -3448,19 +5650,46 @@
         <v>3.6807820000000002</v>
       </c>
       <c r="G82" s="88">
-        <v>313490.12888199999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>7.9098639999999998</v>
+      </c>
+      <c r="H82" s="84">
+        <v>2.0511080000000002</v>
+      </c>
+      <c r="I82" s="87">
+        <v>1.743492</v>
+      </c>
+      <c r="J82" s="84">
+        <v>52482.021000000001</v>
+      </c>
+      <c r="K82" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82" s="86">
+        <v>55821.826073999997</v>
+      </c>
+      <c r="M82" s="87">
+        <v>87123.697713999994</v>
+      </c>
+      <c r="N82" s="88">
+        <v>195427.544788</v>
+      </c>
+      <c r="O82" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P82" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="76"/>
       <c r="B83" s="89" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C83" s="90">
         <v>1.358544</v>
       </c>
       <c r="D83" s="91">
-        <v>2018454.675701</v>
+        <v>2.0184549999999999</v>
       </c>
       <c r="E83" s="92">
         <v>0.34400799999999998</v>
@@ -3469,19 +5698,46 @@
         <v>1.1594040000000001</v>
       </c>
       <c r="G83" s="94">
-        <v>2018457.5376569999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.8804100000000004</v>
+      </c>
+      <c r="H83" s="90">
+        <v>0.59389400000000003</v>
+      </c>
+      <c r="I83" s="93">
+        <v>1.4533149999999999</v>
+      </c>
+      <c r="J83" s="90">
+        <v>1188269.165</v>
+      </c>
+      <c r="K83" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="92">
+        <v>93340.819206999993</v>
+      </c>
+      <c r="M83" s="93">
+        <v>690435.75737300003</v>
+      </c>
+      <c r="N83" s="94">
+        <v>1972045.7415799999</v>
+      </c>
+      <c r="O83" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="P83" s="93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="76"/>
       <c r="B84" s="100" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C84" s="101">
         <v>4.2059800000000003</v>
       </c>
       <c r="D84" s="102">
-        <v>-114868.32083</v>
+        <v>-0.114868</v>
       </c>
       <c r="E84" s="103">
         <v>7.7460509999999996</v>
@@ -3490,19 +5746,46 @@
         <v>4.1138870000000001</v>
       </c>
       <c r="G84" s="105">
-        <v>-114852.254912</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+        <v>15.951048999999999</v>
+      </c>
+      <c r="H84" s="101">
+        <v>4.8720379999999999</v>
+      </c>
+      <c r="I84" s="104">
+        <v>3.9876589999999998</v>
+      </c>
+      <c r="J84" s="101">
+        <v>15154.785</v>
+      </c>
+      <c r="K84" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" s="103">
+        <v>28178.853158000002</v>
+      </c>
+      <c r="M84" s="104">
+        <v>14891.038614999999</v>
+      </c>
+      <c r="N84" s="105">
+        <v>58224.676772999999</v>
+      </c>
+      <c r="O84" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="P84" s="104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="76"/>
       <c r="B85" s="106" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C85" s="84" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D85" s="85" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E85" s="86">
         <v>19.294222999999999</v>
@@ -3513,17 +5796,44 @@
       <c r="G85" s="88">
         <v>28.687501000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H85" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85" s="84">
+        <v>13.260999999999999</v>
+      </c>
+      <c r="K85" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85" s="86">
+        <v>16427.276127000001</v>
+      </c>
+      <c r="M85" s="87">
+        <v>4090.5839999999998</v>
+      </c>
+      <c r="N85" s="88">
+        <v>20531.121126999999</v>
+      </c>
+      <c r="O85" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P85" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="76"/>
       <c r="B86" s="83" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C86" s="84">
         <v>1.656094</v>
       </c>
       <c r="D86" s="85">
-        <v>436039.31609099999</v>
+        <v>0.43603900000000001</v>
       </c>
       <c r="E86" s="86">
         <v>1.14886</v>
@@ -3532,19 +5842,46 @@
         <v>4.1113660000000003</v>
       </c>
       <c r="G86" s="88">
-        <v>436046.232411</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7.3523589999999999</v>
+      </c>
+      <c r="H86" s="84">
+        <v>1.3752169999999999</v>
+      </c>
+      <c r="I86" s="87">
+        <v>1.4372339999999999</v>
+      </c>
+      <c r="J86" s="84">
+        <v>29679.682000000001</v>
+      </c>
+      <c r="K86" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86" s="86">
+        <v>24228.570554999998</v>
+      </c>
+      <c r="M86" s="87">
+        <v>71892.286949000001</v>
+      </c>
+      <c r="N86" s="88">
+        <v>125800.539504</v>
+      </c>
+      <c r="O86" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P86" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="76"/>
       <c r="B87" s="83" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C87" s="84">
         <v>1.17123</v>
       </c>
       <c r="D87" s="85">
-        <v>571706.27026200003</v>
+        <v>0.57170600000000005</v>
       </c>
       <c r="E87" s="86">
         <v>0.46612199999999998</v>
@@ -3553,19 +5890,46 @@
         <v>4.7788519999999997</v>
       </c>
       <c r="G87" s="88">
-        <v>571712.68646700005</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6.9879110000000004</v>
+      </c>
+      <c r="H87" s="84">
+        <v>1.1746490000000001</v>
+      </c>
+      <c r="I87" s="87">
+        <v>2.755382</v>
+      </c>
+      <c r="J87" s="84">
+        <v>72703.089000000007</v>
+      </c>
+      <c r="K87" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L87" s="86">
+        <v>31386.788544999999</v>
+      </c>
+      <c r="M87" s="87">
+        <v>294174.96830200002</v>
+      </c>
+      <c r="N87" s="88">
+        <v>398264.84584700002</v>
+      </c>
+      <c r="O87" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P87" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="76"/>
       <c r="B88" s="83" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C88" s="84">
         <v>0.97493799999999997</v>
       </c>
       <c r="D88" s="85">
-        <v>-302815.90490600001</v>
+        <v>-0.30281599999999997</v>
       </c>
       <c r="E88" s="86">
         <v>0.32990999999999998</v>
@@ -3574,19 +5938,46 @@
         <v>0.47606900000000002</v>
       </c>
       <c r="G88" s="88">
-        <v>-302814.12398899999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.4781010000000001</v>
+      </c>
+      <c r="H88" s="84">
+        <v>2.1722990000000002</v>
+      </c>
+      <c r="I88" s="87">
+        <v>0.29510500000000001</v>
+      </c>
+      <c r="J88" s="84">
+        <v>7073.69</v>
+      </c>
+      <c r="K88" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88" s="86">
+        <v>2614.9009289999999</v>
+      </c>
+      <c r="M88" s="87">
+        <v>3391.2744720000001</v>
+      </c>
+      <c r="N88" s="88">
+        <v>13079.865400999999</v>
+      </c>
+      <c r="O88" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P88" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="76"/>
       <c r="B89" s="83" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C89" s="84">
         <v>1.3654250000000001</v>
       </c>
       <c r="D89" s="85">
-        <v>84797.628601999997</v>
+        <v>8.4797999999999998E-2</v>
       </c>
       <c r="E89" s="86">
         <v>0.27493499999999998</v>
@@ -3595,19 +5986,46 @@
         <v>0.86845300000000003</v>
       </c>
       <c r="G89" s="88">
-        <v>84800.137413999997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.59361</v>
+      </c>
+      <c r="H89" s="84">
+        <v>0.99888399999999999</v>
+      </c>
+      <c r="I89" s="87">
+        <v>0.38453999999999999</v>
+      </c>
+      <c r="J89" s="84">
+        <v>387448.02100000001</v>
+      </c>
+      <c r="K89" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" s="86">
+        <v>54395.114737000004</v>
+      </c>
+      <c r="M89" s="87">
+        <v>232545.305047</v>
+      </c>
+      <c r="N89" s="88">
+        <v>674388.44078399998</v>
+      </c>
+      <c r="O89" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P89" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="76"/>
       <c r="B90" s="89" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C90" s="90">
         <v>1.3635919999999999</v>
       </c>
       <c r="D90" s="91">
-        <v>3476370.9999270001</v>
+        <v>3.4763709999999999</v>
       </c>
       <c r="E90" s="92">
         <v>0.41727300000000001</v>
@@ -3616,19 +6034,46 @@
         <v>0.34126200000000001</v>
       </c>
       <c r="G90" s="94">
-        <v>3476373.1220530001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5.5984980000000002</v>
+      </c>
+      <c r="H90" s="90">
+        <v>0.13514499999999999</v>
+      </c>
+      <c r="I90" s="93">
+        <v>1.8704430000000001</v>
+      </c>
+      <c r="J90" s="90">
+        <v>809238.29700000002</v>
+      </c>
+      <c r="K90" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="L90" s="92">
+        <v>760.65052900000001</v>
+      </c>
+      <c r="M90" s="93">
+        <v>191841.79378000001</v>
+      </c>
+      <c r="N90" s="94">
+        <v>1001840.7413089999</v>
+      </c>
+      <c r="O90" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="P90" s="93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="76"/>
       <c r="B91" s="100" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C91" s="101">
         <v>2.9397850000000001</v>
       </c>
       <c r="D91" s="102">
-        <v>-2208.3389929999998</v>
+        <v>-2.2079999999999999E-3</v>
       </c>
       <c r="E91" s="103">
         <v>5.0832829999999998</v>
@@ -3637,19 +6082,46 @@
         <v>2.5952999999999999</v>
       </c>
       <c r="G91" s="105">
-        <v>-2197.7206249999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10.616159</v>
+      </c>
+      <c r="H91" s="101">
+        <v>2.2874080000000001</v>
+      </c>
+      <c r="I91" s="104">
+        <v>1.117283</v>
+      </c>
+      <c r="J91" s="101">
+        <v>24849.837</v>
+      </c>
+      <c r="K91" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91" s="103">
+        <v>42613.437244000001</v>
+      </c>
+      <c r="M91" s="104">
+        <v>21565.781704000001</v>
+      </c>
+      <c r="N91" s="105">
+        <v>89029.055947999994</v>
+      </c>
+      <c r="O91" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="P91" s="104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="76"/>
       <c r="B92" s="83" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C92" s="84">
         <v>1.441981</v>
       </c>
       <c r="D92" s="85">
-        <v>-70323.690524000005</v>
+        <v>-7.0323999999999998E-2</v>
       </c>
       <c r="E92" s="86">
         <v>2.9423889999999999</v>
@@ -3658,19 +6130,46 @@
         <v>6.4542299999999999</v>
       </c>
       <c r="G92" s="88">
-        <v>-70312.851922999995</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10.768276</v>
+      </c>
+      <c r="H92" s="84">
+        <v>1.290672</v>
+      </c>
+      <c r="I92" s="87">
+        <v>1.4480729999999999</v>
+      </c>
+      <c r="J92" s="84">
+        <v>8882.8040000000001</v>
+      </c>
+      <c r="K92" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L92" s="86">
+        <v>19048.330406000001</v>
+      </c>
+      <c r="M92" s="87">
+        <v>44868.985542000002</v>
+      </c>
+      <c r="N92" s="88">
+        <v>72800.119948000007</v>
+      </c>
+      <c r="O92" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P92" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="76"/>
       <c r="B93" s="83" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C93" s="84">
         <v>4.9569570000000001</v>
       </c>
       <c r="D93" s="85">
-        <v>22614374.893449999</v>
+        <v>22.614374999999999</v>
       </c>
       <c r="E93" s="86">
         <v>3.0344609999999999</v>
@@ -3679,19 +6178,46 @@
         <v>5.1091139999999999</v>
       </c>
       <c r="G93" s="88">
-        <v>22614387.993981998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+        <v>35.714906999999997</v>
+      </c>
+      <c r="H93" s="84">
+        <v>53.095526999999997</v>
+      </c>
+      <c r="I93" s="87">
+        <v>20.333389</v>
+      </c>
+      <c r="J93" s="84">
+        <v>1177.0509999999999</v>
+      </c>
+      <c r="K93" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L93" s="86">
+        <v>638.29787699999997</v>
+      </c>
+      <c r="M93" s="87">
+        <v>1163.134315</v>
+      </c>
+      <c r="N93" s="88">
+        <v>2978.4831920000001</v>
+      </c>
+      <c r="O93" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P93" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="76"/>
       <c r="B94" s="83" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C94" s="84">
         <v>18.002603000000001</v>
       </c>
       <c r="D94" s="85">
-        <v>1063279.0209649999</v>
+        <v>1.0632790000000001</v>
       </c>
       <c r="E94" s="86">
         <v>1.6477649999999999</v>
@@ -3700,19 +6226,46 @@
         <v>3.1422819999999998</v>
       </c>
       <c r="G94" s="88">
-        <v>1063301.8136150001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+        <v>23.855929</v>
+      </c>
+      <c r="H94" s="84">
+        <v>22.243162000000002</v>
+      </c>
+      <c r="I94" s="87">
+        <v>-2.317037</v>
+      </c>
+      <c r="J94" s="84">
+        <v>149336.54</v>
+      </c>
+      <c r="K94" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="86">
+        <v>4811.2756019999997</v>
+      </c>
+      <c r="M94" s="87">
+        <v>21029.793615999999</v>
+      </c>
+      <c r="N94" s="88">
+        <v>175177.609218</v>
+      </c>
+      <c r="O94" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P94" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="76"/>
       <c r="B95" s="83" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C95" s="84">
         <v>2.7211919999999998</v>
       </c>
       <c r="D95" s="85">
-        <v>28868.392667</v>
+        <v>2.8868000000000001E-2</v>
       </c>
       <c r="E95" s="86">
         <v>5.14072</v>
@@ -3721,19 +6274,46 @@
         <v>2.4790619999999999</v>
       </c>
       <c r="G95" s="88">
-        <v>28878.733640999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>10.369842999999999</v>
+      </c>
+      <c r="H95" s="84">
+        <v>2.4238029999999999</v>
+      </c>
+      <c r="I95" s="87">
+        <v>1.367639</v>
+      </c>
+      <c r="J95" s="84">
+        <v>11326.153</v>
+      </c>
+      <c r="K95" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L95" s="86">
+        <v>21858.339543999999</v>
+      </c>
+      <c r="M95" s="87">
+        <v>10475.848223999999</v>
+      </c>
+      <c r="N95" s="88">
+        <v>43660.340768000002</v>
+      </c>
+      <c r="O95" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P95" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="76"/>
       <c r="B96" s="89" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C96" s="90">
         <v>1.914671</v>
       </c>
       <c r="D96" s="91">
-        <v>-243589.680529</v>
+        <v>-0.24359</v>
       </c>
       <c r="E96" s="92">
         <v>1.668398</v>
@@ -3742,19 +6322,46 @@
         <v>6.225193</v>
       </c>
       <c r="G96" s="94">
-        <v>-243579.872267</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9.5646730000000009</v>
+      </c>
+      <c r="H96" s="90">
+        <v>2.176428</v>
+      </c>
+      <c r="I96" s="93">
+        <v>2.6138530000000002</v>
+      </c>
+      <c r="J96" s="90">
+        <v>13930.603999999999</v>
+      </c>
+      <c r="K96" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96" s="92">
+        <v>10234.198211999999</v>
+      </c>
+      <c r="M96" s="93">
+        <v>41557.396589000004</v>
+      </c>
+      <c r="N96" s="94">
+        <v>65722.198801000006</v>
+      </c>
+      <c r="O96" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="P96" s="93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="76"/>
       <c r="B97" s="100" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C97" s="101">
         <v>1.624957</v>
       </c>
       <c r="D97" s="102">
-        <v>691863.84353399999</v>
+        <v>0.69186400000000003</v>
       </c>
       <c r="E97" s="103">
         <v>2.8313090000000001</v>
@@ -3763,19 +6370,46 @@
         <v>2.9809649999999999</v>
       </c>
       <c r="G97" s="105">
-        <v>691871.28076500003</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8.1290949999999995</v>
+      </c>
+      <c r="H97" s="101">
+        <v>1.2282789999999999</v>
+      </c>
+      <c r="I97" s="104">
+        <v>1.544618</v>
+      </c>
+      <c r="J97" s="101">
+        <v>28886.724999999999</v>
+      </c>
+      <c r="K97" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97" s="103">
+        <v>50759.352633000002</v>
+      </c>
+      <c r="M97" s="104">
+        <v>46524.996384999999</v>
+      </c>
+      <c r="N97" s="105">
+        <v>126171.074018</v>
+      </c>
+      <c r="O97" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="P97" s="104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="76"/>
       <c r="B98" s="89" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C98" s="90">
         <v>0.70634699999999995</v>
       </c>
       <c r="D98" s="91">
-        <v>-90497.447805000003</v>
+        <v>-9.0496999999999994E-2</v>
       </c>
       <c r="E98" s="92">
         <v>1.4626950000000001</v>
@@ -3784,10 +6418,37 @@
         <v>4.8610819999999997</v>
       </c>
       <c r="G98" s="94">
-        <v>-90490.417681000006</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6.9396259999999996</v>
+      </c>
+      <c r="H98" s="90">
+        <v>0.70633199999999996</v>
+      </c>
+      <c r="I98" s="93">
+        <v>0.29004400000000002</v>
+      </c>
+      <c r="J98" s="90">
+        <v>12272.83</v>
+      </c>
+      <c r="K98" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98" s="92">
+        <v>37580.584444</v>
+      </c>
+      <c r="M98" s="93">
+        <v>98162.188576</v>
+      </c>
+      <c r="N98" s="94">
+        <v>148015.60302000001</v>
+      </c>
+      <c r="O98" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="P98" s="93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="107"/>
       <c r="B99" s="108"/>
       <c r="C99" s="96"/>
@@ -3795,149 +6456,301 @@
       <c r="E99" s="97"/>
       <c r="F99" s="97"/>
       <c r="G99" s="97"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H99" s="96"/>
+      <c r="I99" s="97"/>
+      <c r="J99" s="96"/>
+      <c r="K99" s="96"/>
+      <c r="L99" s="97"/>
+      <c r="M99" s="97"/>
+      <c r="N99" s="97"/>
+      <c r="O99" s="96"/>
+      <c r="P99" s="97"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C100" s="109"/>
       <c r="D100" s="109"/>
       <c r="E100" s="110"/>
       <c r="F100" s="110"/>
       <c r="G100" s="110"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I100" s="110"/>
+      <c r="J100" s="109"/>
+      <c r="K100" s="109"/>
+      <c r="L100" s="110"/>
+      <c r="M100" s="110"/>
+      <c r="N100" s="110"/>
+      <c r="O100" s="109"/>
+      <c r="P100" s="110"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C101" s="109"/>
       <c r="D101" s="109"/>
       <c r="E101" s="110"/>
       <c r="F101" s="110"/>
       <c r="G101" s="110"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I101" s="110"/>
+      <c r="J101" s="109"/>
+      <c r="K101" s="109"/>
+      <c r="L101" s="110"/>
+      <c r="M101" s="110"/>
+      <c r="N101" s="110"/>
+      <c r="O101" s="109"/>
+      <c r="P101" s="110"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C102" s="109"/>
       <c r="D102" s="109"/>
       <c r="E102" s="110"/>
       <c r="F102" s="110"/>
       <c r="G102" s="110"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I102" s="110"/>
+      <c r="J102" s="109"/>
+      <c r="K102" s="109"/>
+      <c r="L102" s="110"/>
+      <c r="M102" s="110"/>
+      <c r="N102" s="110"/>
+      <c r="O102" s="109"/>
+      <c r="P102" s="110"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C103" s="109"/>
       <c r="D103" s="109"/>
       <c r="E103" s="110"/>
       <c r="F103" s="110"/>
       <c r="G103" s="110"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I103" s="110"/>
+      <c r="J103" s="109"/>
+      <c r="K103" s="109"/>
+      <c r="L103" s="110"/>
+      <c r="M103" s="110"/>
+      <c r="N103" s="110"/>
+      <c r="O103" s="109"/>
+      <c r="P103" s="110"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C104" s="109"/>
       <c r="D104" s="109"/>
       <c r="E104" s="110"/>
       <c r="F104" s="110"/>
       <c r="G104" s="110"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I104" s="110"/>
+      <c r="J104" s="109"/>
+      <c r="K104" s="109"/>
+      <c r="L104" s="110"/>
+      <c r="M104" s="110"/>
+      <c r="N104" s="110"/>
+      <c r="O104" s="109"/>
+      <c r="P104" s="110"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="C105" s="109"/>
       <c r="D105" s="109"/>
       <c r="E105" s="110"/>
       <c r="F105" s="110"/>
       <c r="G105" s="110"/>
-    </row>
-    <row r="106" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I105" s="110"/>
+      <c r="J105" s="109"/>
+      <c r="K105" s="109"/>
+      <c r="L105" s="110"/>
+      <c r="M105" s="110"/>
+      <c r="N105" s="110"/>
+      <c r="O105" s="109"/>
+      <c r="P105" s="110"/>
+    </row>
+    <row r="106" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="B106" s="111"/>
       <c r="C106" s="109"/>
       <c r="D106" s="109"/>
       <c r="E106" s="110"/>
       <c r="F106" s="110"/>
       <c r="G106" s="110"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B107" s="112" t="s">
-        <v>164</v>
-      </c>
+      <c r="I106" s="110"/>
+      <c r="J106" s="109"/>
+      <c r="K106" s="109"/>
+      <c r="L106" s="110"/>
+      <c r="M106" s="110"/>
+      <c r="N106" s="110"/>
+      <c r="O106" s="109"/>
+      <c r="P106" s="110"/>
+    </row>
+    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="111"/>
       <c r="C107" s="109"/>
       <c r="D107" s="109"/>
       <c r="E107" s="110"/>
       <c r="F107" s="110"/>
       <c r="G107" s="110"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="I107" s="110"/>
+      <c r="J107" s="109"/>
+      <c r="K107" s="109"/>
+      <c r="L107" s="110"/>
+      <c r="M107" s="110"/>
+      <c r="N107" s="110"/>
+      <c r="O107" s="109"/>
+      <c r="P107" s="110"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B108" s="114" t="s">
+        <v>178</v>
+      </c>
       <c r="C108" s="109"/>
       <c r="D108" s="109"/>
       <c r="E108" s="110"/>
       <c r="F108" s="110"/>
       <c r="G108" s="110"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B109" s="116" t="s">
-        <v>166</v>
-      </c>
+      <c r="I108" s="110"/>
+      <c r="J108" s="109"/>
+      <c r="K108" s="109"/>
+      <c r="L108" s="110"/>
+      <c r="M108" s="110"/>
+      <c r="N108" s="110"/>
+      <c r="O108" s="109"/>
+      <c r="P108" s="110"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B109" s="2"/>
       <c r="C109" s="109"/>
       <c r="D109" s="109"/>
       <c r="E109" s="110"/>
       <c r="F109" s="110"/>
       <c r="G109" s="110"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B110" s="116" t="s">
-        <v>167</v>
+      <c r="I109" s="110"/>
+      <c r="J109" s="109"/>
+      <c r="K109" s="109"/>
+      <c r="L109" s="110"/>
+      <c r="M109" s="110"/>
+      <c r="N109" s="110"/>
+      <c r="O109" s="109"/>
+      <c r="P109" s="110"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B110" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="C110" s="109"/>
       <c r="D110" s="109"/>
       <c r="E110" s="110"/>
       <c r="F110" s="110"/>
       <c r="G110" s="110"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B111" s="116" t="s">
-        <v>168</v>
+      <c r="I110" s="110"/>
+      <c r="J110" s="109"/>
+      <c r="K110" s="109"/>
+      <c r="L110" s="110"/>
+      <c r="M110" s="110"/>
+      <c r="N110" s="110"/>
+      <c r="O110" s="109"/>
+      <c r="P110" s="110"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B111" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="C111" s="109"/>
       <c r="D111" s="109"/>
       <c r="E111" s="110"/>
       <c r="F111" s="110"/>
       <c r="G111" s="110"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>165</v>
+      <c r="I111" s="110"/>
+      <c r="J111" s="109"/>
+      <c r="K111" s="109"/>
+      <c r="L111" s="110"/>
+      <c r="M111" s="110"/>
+      <c r="N111" s="110"/>
+      <c r="O111" s="109"/>
+      <c r="P111" s="110"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B112" s="114" t="s">
+        <v>179</v>
       </c>
       <c r="C112" s="109"/>
       <c r="D112" s="109"/>
       <c r="E112" s="110"/>
       <c r="F112" s="110"/>
       <c r="G112" s="110"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B113" s="113"/>
+      <c r="I112" s="110"/>
+      <c r="J112" s="109"/>
+      <c r="K112" s="109"/>
+      <c r="L112" s="110"/>
+      <c r="M112" s="110"/>
+      <c r="N112" s="110"/>
+      <c r="O112" s="109"/>
+      <c r="P112" s="110"/>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B113" s="114" t="s">
+        <v>177</v>
+      </c>
       <c r="C113" s="109"/>
       <c r="D113" s="109"/>
       <c r="E113" s="110"/>
       <c r="F113" s="110"/>
       <c r="G113" s="110"/>
+      <c r="I113" s="110"/>
+      <c r="J113" s="109"/>
+      <c r="K113" s="109"/>
+      <c r="L113" s="110"/>
+      <c r="M113" s="110"/>
+      <c r="N113" s="110"/>
+      <c r="O113" s="109"/>
+      <c r="P113" s="110"/>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B114" s="112"/>
+      <c r="C114" s="109"/>
+      <c r="D114" s="109"/>
+      <c r="E114" s="110"/>
+      <c r="F114" s="110"/>
+      <c r="G114" s="110"/>
+      <c r="I114" s="110"/>
+      <c r="J114" s="109"/>
+      <c r="K114" s="109"/>
+      <c r="L114" s="110"/>
+      <c r="M114" s="110"/>
+      <c r="N114" s="110"/>
+      <c r="O114" s="109"/>
+      <c r="P114" s="110"/>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B115" s="112"/>
+      <c r="C115" s="109"/>
+      <c r="D115" s="109"/>
+      <c r="E115" s="109"/>
+      <c r="F115" s="109"/>
+      <c r="G115" s="109"/>
+      <c r="I115" s="109"/>
+      <c r="J115" s="109"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B9A7A46A-F8C9-4BA5-ABA3-3CDA4770311B}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{06475828-4B26-4C2D-A3E3-958409BFBEAF}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{C253A961-F88D-4A70-977D-497482723ADA}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{0B21998C-BA0B-41B0-9236-6D9E057E1FFB}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{44DBFD32-E49E-41FD-8F06-1BA49F82EFFC}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{072F7D24-698A-4969-8424-D22AAA6D5A55}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{EE7B85EF-AB22-4C67-B64F-40F9F33F1FE2}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{9247C53B-9A90-47F9-A20A-9D450193A13A}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{459FD668-99C5-4A44-AF75-1B1297FFC433}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{19134711-91B6-465B-8123-F3A5F0C83BA3}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{B8CD408B-BEF9-46F5-8D93-9459A9FB71C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
